--- a/data(5).xlsx
+++ b/data(5).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data fetching scrypt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2C71C9-AC8C-493A-85DF-53EF7E4FF8C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10DFCB7F-61D7-4336-A87F-B9E1C5F6E006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>session_id</t>
   </si>
@@ -34,63 +34,10 @@
     <t>assistant_messages</t>
   </si>
   <si>
-    <t>c538e110-20de-4efc-a1e4-8bf41f0f7760</t>
-  </si>
-  <si>
     <t>GeneralQuestion</t>
   </si>
   <si>
-    <t>can you give me pro plus of chatgpt?</t>
-  </si>
-  <si>
     <t xml:space="preserve">[answer]: Sorry, this is an irrelevant question. Please ask questions related to programming.
-</t>
-  </si>
-  <si>
-    <t>15eec494-4b04-420d-9401-90a3c1897d4e</t>
-  </si>
-  <si>
-    <t>hello dear</t>
-  </si>
-  <si>
-    <t>f3d9c4eb-a539-4dba-b784-c980d3d01994</t>
-  </si>
-  <si>
-    <t>can you give me c++ code for finding prime number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[answer]: Certainly! To determine if a number is prime in C++, you can write a function that checks divisibility from 2 up to the square root of the number. A prime number is only divisible by 1 and itself, so if you find any divisor in this range, the number is not prime. Here's a complete C++ program that checks if a given number is prime:
-[code]:
-[code-title]: Check if a number is prime in C++
-#include &lt;iostream&gt;
-#include &lt;cmath&gt; // For sqrt function
-// Function to check if a number is prime
-bool isPrime(int number) {
-    if (number &lt;= 1) return false; // 0 and 1 are not prime numbers
-    if (number &lt;= 3) return true;  // 2 and 3 are prime numbers
-    // Check divisibility from 2 to sqrt(number)
-    for (int i = 2; i &lt;= std::sqrt(number); ++i) {
-        if (number % i == 0) {
-            return false; // If divisible, not a prime number
-        }
-    }
-    return true; // If no divisors found, it's a prime number
-}
-int main() {
-    int num;
-    std::cout &lt;&lt; "Enter a number: ";
-    std::cin &gt;&gt; num;
-    if (isPrime(num)) {
-        std::cout &lt;&lt; num &lt;&lt; " is a prime number." &lt;&lt; std::endl;
-    } else {
-        std::cout &lt;&lt; num &lt;&lt; " is not a prime number." &lt;&lt; std::endl;
-    }
-    return 0;
-}
-[end-code]
-This program defines a function `isPrime` that checks if a number is prime by testing divisibility up to the square root of the number. The `main` function prompts the user to enter a number and then uses `isPrime` to determine and print whether the number is prime. This approach is efficient for checking primality, especially for larger numbers. 
-Topics covered: C++, prime number, function, loops, conditional statements, input/output;
-Probable Question Type: HelpWriteCode
 </t>
   </si>
   <si>
@@ -133,6 +80,259 @@
 Topics covered: prime numbers, loops, conditional statements, functions, input/output, C++ standard library;
 Probable Question Type: HelpWriteCode
 </t>
+  </si>
+  <si>
+    <t>b23ecdc8-41e5-4fbb-aff5-c2f479d589c1</t>
+  </si>
+  <si>
+    <t>tell me something about insertion sort in c++</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[answer]: Insertion Sort is a simple and intuitive sorting algorithm that builds the final sorted array one element at a time. It is much like the way you might sort playing cards in your hands. The algorithm works by iterating through the array and growing a sorted subsection at the beginning of the array. For each element, it compares it with the elements in the sorted subsection and inserts it into the correct position. This process is repeated until the entire array is sorted. Insertion Sort is efficient for small data sets or arrays that are already partially sorted, with a time complexity of O(n^2) in the average and worst cases, and O(n) in the best case when the array is already sorted. Here is a C++ example of the Insertion Sort algorithm:
+[code]:
+[code-title]: insertion sort in C++
+#include &lt;iostream&gt;
+#include &lt;vector&gt;
+void insertionSort(std::vector&lt;int&gt;&amp; arr) {
+    for (size_t i = 1; i &lt; arr.size(); ++i) {
+        int key = arr[i];
+        int j = i - 1;
+        // Move elements of arr[0..i-1], that are greater than key, to one position ahead of their current position
+        while (j &gt;= 0 &amp;&amp; arr[j] &gt; key) {
+            arr[j + 1] = arr[j];
+            --j;
+        }
+        arr[j + 1] = key;
+    }
+}
+int main() {
+    std::vector&lt;int&gt; data = {9, 5, 1, 4, 3};
+    insertionSort(data);
+    std::cout &lt;&lt; "Sorted array: ";
+    for (int num : data) {
+        std::cout &lt;&lt; num &lt;&lt; " ";
+    }
+    return 0;
+}
+[end-code]
+Topics covered: Insertion Sort, Sorting Algorithms, C++ Programming, Time Complexity, Algorithm Efficiency, Vector Usage;
+Probable Question Type: GeneralQuestion
+</t>
+  </si>
+  <si>
+    <t>7cfb5ec6-ff24-4774-9cb9-0f9519bdf1c9</t>
+  </si>
+  <si>
+    <t>hello kitty</t>
+  </si>
+  <si>
+    <t>f4507800-7436-4721-a317-b9697aaefb26</t>
+  </si>
+  <si>
+    <t>give code prime num</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[answer]: To determine if a number is prime, you need to check if it is divisible only by 1 and itself. A simple approach is to iterate from 2 to the square root of the number and check for divisibility. If the number is divisible by any of these, it is not prime. Here's a C program that checks if a number is prime:
+[code]:
+[code-title]: check if a number is prime
+#include &lt;stdio.h&gt;
+#include &lt;stdbool.h&gt;
+#include &lt;math.h&gt;
+// Function to check if a number is prime
+bool isPrime(int num) {
+    if (num &lt;= 1) return false; // 0 and 1 are not prime numbers
+    if (num &lt;= 3) return true;  // 2 and 3 are prime numbers
+    if (num % 2 == 0 || num % 3 == 0) return false; // eliminate multiples of 2 and 3
+    for (int i = 5; i &lt;= sqrt(num); i += 6) {
+        if (num % i == 0 || num % (i + 2) == 0) return false;
+    }
+    return true;
+}
+int main() {
+    int number;
+    printf("Enter a number: ");
+    scanf("%d", &amp;number);
+    if (isPrime(number)) {
+        printf("%d is a prime number.\n", number);
+    } else {
+        printf("%d is not a prime number.\n", number);
+    }
+    return 0;
+}
+[end-code]
+This program defines a function `isPrime` that checks if a number is prime by testing divisibility up to the square root of the number. The `main` function reads an integer from the user and uses `isPrime` to determine and print whether the number is prime. This approach is efficient for checking primality of numbers, especially for larger values. 
+Topics covered: prime numbers, loops, conditional statements, functions, input/output, efficiency;
+Probable Question Type: HelpWriteCode
+</t>
+  </si>
+  <si>
+    <t>c02c57a9-de27-43da-890b-863cd57c22f4</t>
+  </si>
+  <si>
+    <t>What is the time complexity of Heap Shot</t>
+  </si>
+  <si>
+    <t>04f68667-9cb3-4cb1-8504-06488a50c024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How To run code in </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[answer]: To run C or C++ code, you need to follow a series of steps involving writing, compiling, and executing the code. First, write your code in a text editor and save it with a `.c` extension for C or a `.cpp` extension for C++. Next, you need a compiler to translate your code into an executable program. Popular compilers include GCC (GNU Compiler Collection) for C and C++, and Clang. You can compile your code using a command like `gcc -o myprogram mycode.c` for C or `g++ -o myprogram mycode.cpp` for C++. This command tells the compiler to create an executable named `myprogram` from the source file `mycode.c` or `mycode.cpp`. Finally, run the compiled program by typing `./myprogram` in the terminal. If you're using an Integrated Development Environment (IDE) like Code::Blocks, Visual Studio, or Eclipse, these steps are often streamlined into a single "Build and Run" command. This process allows you to see the output of your program and debug any issues that arise.
+Topics covered: writing code, compiling, executing, C, C++, IDE, GCC;
+Probable Question Type: GeneralQuestion
+</t>
+  </si>
+  <si>
+    <t>HelpWriteCode</t>
+  </si>
+  <si>
+    <t>give me code for prime number</t>
+  </si>
+  <si>
+    <t>[answer]: To determine if a number is prime, we need to check if it is divisible by any number other than 1 and itself. A prime number is a natural number greater than 1 that has no positive divisors other than 1 and itself. The simplest way to check for primality is to test divisibility from 2 up to the square root of the number. This is because a larger factor of the number must be a multiple of a smaller factor that has already been checked.
+Here's a C program that checks if a given number is prime:
+[code]: [code-title]: Prime Number Check // Complete working code with comments
+#include &lt;stdio.h&gt;
+#include &lt;stdbool.h&gt;
+#include &lt;math.h&gt;
+// Function to check if a number is prime
+bool isPrime(int number) {
+    if (number &lt;= 1) {
+        return false; // Numbers less than or equal to 1 are not prime
+    }
+    if (number &lt;= 3) {
+        return true; // 2 and 3 are prime numbers
+    }
+    if (number % 2 == 0 || number % 3 == 0) {
+        return false; // Eliminate multiples of 2 and 3
+    }
+    for (int i = 5; i &lt;= sqrt(number); i += 6) {
+        if (number % i == 0 || number % (i + 2) == 0) {
+            return false; // Check divisibility by numbers of the form 6k ± 1
+        }
+    }
+    return true;
+}
+int main() {
+    int num;
+    printf("Enter a number: ");
+    scanf("%d", &amp;num);
+    if (isPrime(num)) {
+        printf("%d is a prime number.\n", num);
+    } else {
+        printf("%d is not a prime number.\n", num);
+    }
+    return 0;
+}
+[end-code]
+In this code:
+- We define a function `isPrime` that takes an integer and returns a boolean indicating whether the number is prime.
+- We handle special cases for numbers less than or equal to 3.
+- We eliminate even numbers and multiples of 3 early to reduce the number of checks.
+- We loop from 5 to the square root of the number, checking divisibility by numbers of the form 6k ± 1, which are potential prime candidates.
+Topics covered: prime numbers, loops, conditional statements, functions, input/output, mathematical operations;
+Probable Question Type: HelpWriteCode</t>
+  </si>
+  <si>
+    <t>69fd51bc-1ecb-432b-bee6-8a93eb4796a8</t>
+  </si>
+  <si>
+    <t>how to write clean code in c++</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[answer]: Writing clean code in C++ involves following best practices that enhance readability, maintainability, and efficiency. Start by using meaningful variable and function names that clearly describe their purpose. Keep functions short and focused on a single task, adhering to the Single Responsibility Principle. Use consistent indentation and spacing to improve readability. Leverage C++ features like classes and objects to encapsulate data and functionality, promoting modularity. Avoid magic numbers by defining constants with descriptive names. Use comments judiciously to explain complex logic, but ensure the code is self-explanatory where possible. Implement error handling to manage exceptions and edge cases gracefully. Regularly refactor code to improve structure and performance without altering functionality. Finally, adhere to a consistent coding style guide, such as Google's C++ Style Guide, to maintain uniformity across the codebase. Here's a simple example demonstrating some of these principles:
+[code]:
+[code-title]: clean code example in C++
+#include &lt;iostream&gt;
+#include &lt;vector&gt;
+// Function to calculate the average of a list of numbers
+double calculateAverage(const std::vector&lt;int&gt;&amp; numbers) {
+    if (numbers.empty()) {
+        return 0.0; // Handle empty vector case
+    }
+    int sum = 0;
+    for (int number : numbers) {
+        sum += number;
+    }
+    return static_cast&lt;double&gt;(sum) / numbers.size();
+}
+int main() {
+    std::vector&lt;int&gt; numbers = {10, 20, 30, 40, 50};
+    double average = calculateAverage(numbers);
+    std::cout &lt;&lt; "Average: " &lt;&lt; average &lt;&lt; std::endl;
+    return 0;
+}
+[end-code]
+</t>
+  </si>
+  <si>
+    <t>HelpFixCode</t>
+  </si>
+  <si>
+    <t>#include &lt;iostream&gt;
+using namespace std;
+int main() {
+    cout &lt;&lt; "Hello, world!" &lt;&lt; endl
+    return 0;
+}
+fix the code</t>
+  </si>
+  <si>
+    <t>[answer]: The provided code has a syntax error due to a missing semicolon at the end of the `cout` statement. In C++, each statement must end with a semicolon. Let's fix this issue.
+[fixed-code]:
+  #include &lt;iostream&gt;  // Include the iostream library for input and output
+  using namespace std; // Use the standard namespace
+  int main() {
+      cout &lt;&lt; "Hello, world!" &lt;&lt; endl; // FIXED: Added missing semicolon at the end of the line
+      return 0;                        // Return 0 to indicate successful execution
+  }
+[end-fixed-code]
+Line 6: Added a semicolon at the end of the `cout` statement to correct the syntax error. In C++, every statement must end with a semicolon to indicate the end of the instruction.
+This fix ensures that the program compiles and runs correctly, printing "Hello, world!" to the console.
+Topics covered: syntax errors, semicolons, C++ input/output, namespaces, main function;
+Probable Question Type: HelpFixCode</t>
+  </si>
+  <si>
+    <t>#include &lt;iostream&gt;  // Include the iostream library for input and output
+  using namespace std; // Use the standard namespace
+  int main() {
+      cout &lt;&lt; "Hello, world!" &lt;&lt; endl; // Print "Hello, world!" to the console
+      return 0;                        // FIXED: Added missing semicolon at the end of the line
+  }
+give code for DFS traversal</t>
+  </si>
+  <si>
+    <t>[answer]: Depth-First Search (DFS) is a graph traversal algorithm that explores as far as possible along each branch before backtracking. It uses a stack data structure, either implicitly with recursion or explicitly with an iterative approach. Here's a step-by-step explanation of how to implement DFS using recursion:
+1. **Initialize**: Start with a graph represented as an adjacency list. Each node has a list of adjacent nodes.
+2. **Visited Array**: Maintain an array to keep track of visited nodes to avoid processing a node more than once.
+3. **Recursive Function**: Create a recursive function that:
+   - Marks the current node as visited.
+   - Processes the current node (e.g., print it).
+   - Recursively visits all unvisited adjacent nodes.
+4. **Start DFS**: Call the recursive function from the starting node.
+Here's the pseudocode for DFS traversal:
+[code]: DFS Traversal Algorithm
+BEGIN
+  FUNCTION DFS(node, visited, graph)
+    MARK node as visited
+    PRINT node
+    FOR each adjacentNode in graph[node]
+      IF adjacentNode is not visited THEN
+        CALL DFS(adjacentNode, visited, graph)
+      ENDIF
+    ENDFOR
+  ENDFUNCTION
+  FUNCTION main
+    DECLARE graph as adjacency list
+    DECLARE visited array of size equal to number of nodes, initialized to false
+    CALL DFS(startNode, visited, graph)
+  ENDFUNCTION
+END
+[end-code]
+This pseudocode outlines the recursive approach to DFS. In practice, you would implement this in C or C++ by defining the graph structure, initializing the visited array, and writing the DFS function to perform the traversal.
+Topics covered: DFS, graph traversal, recursion, adjacency list, visited array, stack (implicit);
+Probable Question Type: HelpWriteCode</t>
   </si>
 </sst>
 </file>
@@ -513,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -542,60 +742,144 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
+    </row>
+    <row r="7" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="288" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
